--- a/Exceptions.xlsx
+++ b/Exceptions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2460" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="2868" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="All Errors We Faced Are Listed" sheetId="2" r:id="rId1"/>
@@ -236,6 +236,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -244,21 +259,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,7 +543,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:E23"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,13 +554,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -583,10 +583,10 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -600,8 +600,8 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
@@ -613,8 +613,8 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
@@ -626,8 +626,8 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
@@ -639,8 +639,8 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
@@ -652,8 +652,8 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -667,8 +667,8 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="4" t="s">
         <v>2</v>
       </c>
@@ -680,8 +680,8 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="4" t="s">
         <v>4</v>
       </c>
@@ -693,8 +693,8 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="4" t="s">
         <v>5</v>
       </c>
@@ -706,8 +706,8 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="4" t="s">
         <v>6</v>
       </c>
@@ -719,10 +719,10 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -736,8 +736,8 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="4" t="s">
         <v>4</v>
       </c>
@@ -749,8 +749,8 @@
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="4" t="s">
         <v>7</v>
       </c>
@@ -762,8 +762,8 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -777,8 +777,8 @@
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="4" t="s">
         <v>4</v>
       </c>
@@ -790,8 +790,8 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="4" t="s">
         <v>7</v>
       </c>
@@ -803,8 +803,8 @@
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="4" t="s">
         <v>17</v>
       </c>
@@ -813,48 +813,48 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>1</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>2</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="A21:E21"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B3:B12"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="A21:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
